--- a/NformTester/NformTester/Keywordscripts/600.20.30.110_CheckActionSetsWithDifferentRight.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.110_CheckActionSetsWithDifferentRight.xlsx
@@ -1201,7 +1201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7675" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7687" uniqueCount="853">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4092,7 +4092,49 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4137,74 +4179,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4636,7 +4610,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4913,16 +4887,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:O141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="30.375" customWidth="1"/>
     <col min="6" max="6" width="52.875" customWidth="1"/>
@@ -5127,7 +5101,7 @@
         <v>759</v>
       </c>
       <c r="B7" s="13">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
@@ -8495,15 +8469,13 @@
         <v>300</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="G135" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="I135" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
       <c r="J135" s="20"/>
       <c r="K135" s="20"/>
       <c r="L135" s="20"/>
@@ -8519,16 +8491,16 @@
         <v>797</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="F136" s="20" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="G136" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H136" s="20"/>
-      <c r="I136" s="20"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
       <c r="J136" s="20"/>
       <c r="K136" s="20"/>
       <c r="L136" s="20"/>
@@ -8541,17 +8513,19 @@
         <v>136</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>848</v>
+        <v>797</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="F137" s="20">
-        <v>5</v>
-      </c>
-      <c r="G137" s="20"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="F137" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G137" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" s="20"/>
+      <c r="I137" s="4"/>
       <c r="J137" s="20"/>
       <c r="K137" s="20"/>
       <c r="L137" s="20"/>
@@ -8570,12 +8544,14 @@
         <v>300</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>95</v>
+        <v>303</v>
       </c>
       <c r="G138" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="H138" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>844</v>
+      </c>
       <c r="I138" s="20"/>
       <c r="J138" s="20"/>
       <c r="K138" s="20"/>
@@ -8584,29 +8560,110 @@
       <c r="N138" s="22"/>
       <c r="O138" s="19"/>
     </row>
+    <row r="139" spans="3:15">
+      <c r="C139" s="2">
+        <v>138</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F139" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="G139" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H139" s="20"/>
+      <c r="I139" s="20"/>
+      <c r="J139" s="20"/>
+      <c r="K139" s="20"/>
+      <c r="L139" s="20"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="19"/>
+    </row>
+    <row r="140" spans="3:15">
+      <c r="C140" s="2">
+        <v>139</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>848</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="F140" s="20">
+        <v>5</v>
+      </c>
+      <c r="G140" s="20"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="20"/>
+      <c r="J140" s="20"/>
+      <c r="K140" s="20"/>
+      <c r="L140" s="20"/>
+      <c r="M140" s="20"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="19"/>
+    </row>
+    <row r="141" spans="3:15">
+      <c r="C141" s="2">
+        <v>140</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F141" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G141" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" s="20"/>
+      <c r="I141" s="20"/>
+      <c r="J141" s="20"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="20"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="19"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N2:N122">
-    <cfRule type="cellIs" dxfId="5" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="32" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N123:N124">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N123:N138">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N123:N141">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N136:N137">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8614,13 +8671,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D113:D122 D103:D111 D29:D50 D6:D27 D3:D4 D52:D76 D78:D87 D89:D101">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F141">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G141">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E141">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
